--- a/3. Addon or Installer/Project_VersionControl.xlsx
+++ b/3. Addon or Installer/Project_VersionControl.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Abeo-Projects\Abeo_Projects_WorkArea\SPICA\3. Addon or Installer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="UAT" sheetId="1" r:id="rId1"/>
+    <sheet name="LIVE" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>No.</t>
   </si>
@@ -35,12 +40,27 @@
   <si>
     <t>Responsibility</t>
   </si>
+  <si>
+    <t>Inter_Company</t>
+  </si>
+  <si>
+    <t>Existing Solution packed for X64 bit client</t>
+  </si>
+  <si>
+    <t>Separate the BP Master SYNC in windows service</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>Yee Mon</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,12 +213,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -210,18 +245,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -241,6 +264,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -287,7 +318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,9 +350,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,6 +385,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -528,14 +561,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:D14"/>
+      <selection activeCell="P5" sqref="P5:S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
@@ -545,460 +578,476 @@
     <col min="15" max="15" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="36" customHeight="1">
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="12" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="12" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="14"/>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="15"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-    </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1">
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="12">
+        <v>20160405.010000002</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="12">
+        <v>20161129.010000002</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="105">
@@ -1070,9 +1119,6 @@
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:O12"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:O15"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:G14"/>
@@ -1107,30 +1153,607 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:K19"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:S22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="0.5703125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="42.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="15"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="105">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P21:S21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
